--- a/trans_data/四川省银行 1936 C0244.xlsx
+++ b/trans_data/四川省银行 1936 C0244.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS4"/>
+  <dimension ref="A1:DA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,430 +486,470 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>存放外埠同业</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>运送中现金</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>现金_库存</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>现金_运送中现金</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>现金_存放同业</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>放款_定期</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>放款_活期</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>放款_贴现</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>放款</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>押汇</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>有价证券</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>生金银</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>各种货币</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>领用券准备金</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>期收汇款</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>期收款项</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>存出保证金</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>开办费</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>建筑费</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>营用房地产</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>营业用器具</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>资产 合计</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>托放款项</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>买入汇款</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>定期存款</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>往来存款</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>特别往来存款</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>比期存款</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>本票</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>保支</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>暂时存款</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>同业存款</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>存入保证金</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>期付款项</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>领用兑换券</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>领用券保证准备</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>发行辅币券</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>卖出汇款</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>特种行员存款</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>甲种行员存款</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>乙种行员存款</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>期付汇款</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>应解汇款</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>代收款项</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>营用器具折旧准备</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>营房地产折旧准备</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>未付汇款</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>预收利息</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>应付未付利息</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>本年总纯益</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>负债 合计</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>资本</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>盈余滚存</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>呆账准备</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>建筑准备</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>存款_活期</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>存款_定期</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>存款_行员储金</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>存款</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>保付支票</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>汇出汇款</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>转贴现</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>行员优遇金</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>本年纯益</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>发行辅币券准备</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>领用兑换券准备</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>代理行</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>预付各项开支</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>特别开支</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>营业开支</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>日用开支</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>摊提营业用器具</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>摊提开办费</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>房地产损益</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>有价证券损益</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>摊提房地产</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>损失 合计</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>杂损益</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>呆账</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>各项开支</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>各项摊提</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>应收未收利息</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>利益 合计</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>平汇基金</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>利息</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>贴现放款息</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>汇水</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>手续费</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>兑换损益</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>前万办事处纯益</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>货币损益</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>前期损益</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>上期纯益</t>
         </is>
@@ -952,217 +992,231 @@
         <v>79806.45</v>
       </c>
       <c r="L2" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M2" t="n">
         <v>100000</v>
       </c>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="n">
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
         <v>615921.4</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
-        <v>2188878</v>
-      </c>
-      <c r="T2" t="n">
-        <v>82689.89</v>
-      </c>
-      <c r="U2" t="n">
-        <v>332488.48</v>
-      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
+        <v>2188878</v>
+      </c>
+      <c r="X2" t="n">
+        <v>82689.89</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>332488.48</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
         <v>219800</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AB2" t="n">
         <v>2111600</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AC2" t="n">
         <v>25617</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AD2" t="n">
         <v>33812.96</v>
       </c>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="n">
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="n">
         <v>55000</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AG2" t="n">
         <v>29938.4</v>
       </c>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="n">
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="n">
         <v>5594.5</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AJ2" t="n">
         <v>66500</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AK2" t="n">
         <v>23896.67</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AL2" t="n">
         <v>740033.38</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AM2" t="n">
+        <v>60310.7</v>
+      </c>
+      <c r="AN2" t="n">
         <v>422813.03</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AO2" t="n">
         <v>21705.2</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AP2" t="n">
         <v>520</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AQ2" t="n">
         <v>877459.55</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AR2" t="n">
         <v>111878.92</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AS2" t="n">
         <v>120</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AT2" t="n">
         <v>2100000</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AU2" t="n">
         <v>5000000</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AV2" t="n">
         <v>2000000</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AW2" t="n">
         <v>587486</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AX2" t="n">
         <v>201560</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AY2" t="n">
         <v>4660.21</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AZ2" t="n">
         <v>4464.06</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="BA2" t="n">
         <v>2432.13</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="BB2" t="n">
         <v>71500</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="BC2" t="n">
         <v>5880</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="BD2" t="n">
         <v>34850</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BE2" t="n">
         <v>2858.56</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BF2" t="n">
         <v>11000</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BG2" t="n">
         <v>5200</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BH2" t="n">
         <v>22118.78</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BI2" t="n">
         <v>152.75</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BJ2" t="n">
         <v>555872.13</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BK2" t="n">
         <v>15118772.07</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BL2" t="n">
         <v>1250000</v>
       </c>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="n">
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="n">
         <v>587486</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BZ2" t="n">
         <v>5000000</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="CA2" t="n">
         <v>377175.33</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="CB2" t="n">
         <v>3833.6</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CC2" t="n">
         <v>10192.92</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="CD2" t="n">
         <v>30938</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="CE2" t="n">
         <v>58130.4</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CF2" t="n">
+        <v>2858.56</v>
+      </c>
+      <c r="CG2" t="n">
         <v>3389.72</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CH2" t="n">
         <v>763.84</v>
       </c>
-      <c r="CB2" t="inlineStr"/>
-      <c r="CC2" t="n">
+      <c r="CI2" t="inlineStr"/>
+      <c r="CJ2" t="n">
         <v>11000</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CK2" t="n">
         <v>732983.5699999999</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CL2" t="n">
         <v>7777.72</v>
       </c>
-      <c r="CF2" t="inlineStr"/>
-      <c r="CG2" t="inlineStr"/>
-      <c r="CH2" t="n">
+      <c r="CM2" t="inlineStr"/>
+      <c r="CN2" t="inlineStr"/>
+      <c r="CO2" t="inlineStr"/>
+      <c r="CP2" t="n">
         <v>4787.06</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CQ2" t="n">
         <v>15118772.07</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CR2" t="n">
         <v>1000000</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CS2" t="n">
         <v>106721.86</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CT2" t="n">
         <v>193610.52</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CU2" t="n">
         <v>185989.64</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CV2" t="n">
         <v>2902.62</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CW2" t="n">
         <v>17604.42</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CX2" t="n">
         <v>824</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CY2" t="n">
         <v>35.31</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CZ2" t="n">
         <v>217517.48</v>
       </c>
-      <c r="CS2" t="inlineStr"/>
+      <c r="DA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1176,200 +1230,202 @@
       <c r="C3" t="n">
         <v>1935</v>
       </c>
-      <c r="D3" t="n">
-        <v>4683309.94</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>560505.38</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>1644147.24</v>
       </c>
-      <c r="K3" t="n">
-        <v>20000</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>1037905.7</v>
+      </c>
+      <c r="O3" t="n">
         <v>109.46</v>
       </c>
-      <c r="M3" t="n">
-        <v>1037905.7</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>180311.62</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>4683309.94</v>
+      </c>
+      <c r="S3" t="n">
         <v>429607.18</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="T3" t="n">
+        <v>560505.38</v>
+      </c>
+      <c r="U3" t="n">
         <v>5673422.5</v>
       </c>
-      <c r="R3" t="n">
+      <c r="V3" t="n">
         <v>15000</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
-        <v>1000000</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="n">
+      <c r="Z3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="n">
         <v>5500</v>
       </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="n">
-        <v>2858.56</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>13875403.98</v>
-      </c>
-      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>60310.7</v>
+        <v>13875403.98</v>
       </c>
       <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="n">
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>40996.5</v>
       </c>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="n">
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="n">
         <v>1820201.17</v>
       </c>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="n">
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="n">
         <v>10070</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AT3" t="n">
         <v>2708402.9</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AU3" t="n">
         <v>1000000</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AV3" t="n">
         <v>400000</v>
       </c>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="n">
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="n">
         <v>67688</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="BC3" t="n">
         <v>231305.03</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="BD3" t="n">
         <v>616156.35</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BE3" t="n">
         <v>21640.83</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BF3" t="n">
         <v>22000</v>
       </c>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
-      <c r="BE3" t="n">
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="n">
+        <v>13875403.98</v>
+      </c>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="n">
+        <v>25451.82</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>60000</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1223526.9</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>2405148.31</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>48544.52</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>3677219.73</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>331037.39</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>200000</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>588.3200000000001</v>
+      </c>
+      <c r="BX3" t="n">
         <v>592459.4399999999</v>
       </c>
-      <c r="BF3" t="n">
-        <v>13875403.98</v>
-      </c>
-      <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="n">
-        <v>25451.82</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>60000</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>1223526.9</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>2405148.31</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>48544.52</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>3677219.73</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>331037.39</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>200000</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>588.3200000000001</v>
-      </c>
-      <c r="BS3" t="inlineStr"/>
-      <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="inlineStr"/>
-      <c r="BV3" t="n">
-        <v>133827.43</v>
-      </c>
-      <c r="BW3" t="inlineStr"/>
-      <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="inlineStr"/>
-      <c r="CB3" t="n">
-        <v>30981.43</v>
-      </c>
+      <c r="CB3" t="inlineStr"/>
       <c r="CC3" t="inlineStr"/>
-      <c r="CD3" t="n">
-        <v>838866.28</v>
-      </c>
+      <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="inlineStr"/>
-      <c r="CF3" t="n">
-        <v>7286.62</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>16789.87</v>
-      </c>
+      <c r="CF3" t="inlineStr"/>
+      <c r="CG3" t="inlineStr"/>
       <c r="CH3" t="inlineStr"/>
       <c r="CI3" t="n">
-        <v>732983.5699999999</v>
+        <v>30981.43</v>
       </c>
       <c r="CJ3" t="inlineStr"/>
       <c r="CK3" t="n">
-        <v>211185.13</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>21667.25</v>
-      </c>
+        <v>838866.28</v>
+      </c>
+      <c r="CL3" t="inlineStr"/>
       <c r="CM3" t="n">
-        <v>127686.84</v>
+        <v>7286.62</v>
       </c>
       <c r="CN3" t="n">
-        <v>25786.93</v>
-      </c>
-      <c r="CO3" t="inlineStr"/>
+        <v>133827.43</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>16789.87</v>
+      </c>
       <c r="CP3" t="inlineStr"/>
       <c r="CQ3" t="n">
-        <v>208076.17</v>
+        <v>732983.5699999999</v>
       </c>
       <c r="CR3" t="inlineStr"/>
       <c r="CS3" t="n">
+        <v>211185.13</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>21667.25</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>127686.84</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>25786.93</v>
+      </c>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="n">
+        <v>208076.17</v>
+      </c>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="n">
         <v>213482.53</v>
       </c>
     </row>
@@ -1462,9 +1518,7 @@
       <c r="CF4" t="inlineStr"/>
       <c r="CG4" t="inlineStr"/>
       <c r="CH4" t="inlineStr"/>
-      <c r="CI4" t="n">
-        <v>838866.28</v>
-      </c>
+      <c r="CI4" t="inlineStr"/>
       <c r="CJ4" t="inlineStr"/>
       <c r="CK4" t="inlineStr"/>
       <c r="CL4" t="inlineStr"/>
@@ -1472,9 +1526,19 @@
       <c r="CN4" t="inlineStr"/>
       <c r="CO4" t="inlineStr"/>
       <c r="CP4" t="inlineStr"/>
-      <c r="CQ4" t="inlineStr"/>
+      <c r="CQ4" t="n">
+        <v>838866.28</v>
+      </c>
       <c r="CR4" t="inlineStr"/>
       <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr"/>
+      <c r="CW4" t="inlineStr"/>
+      <c r="CX4" t="inlineStr"/>
+      <c r="CY4" t="inlineStr"/>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trans_data/四川省银行 1936 C0244.xlsx
+++ b/trans_data/四川省银行 1936 C0244.xlsx
@@ -741,74 +741,74 @@
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
+          <t>资本</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>盈余滚存</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>呆账准备</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>建筑准备</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>存款_活期</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>存款_定期</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>存款_行员储金</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>存款</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>保付支票</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>汇出汇款</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>转贴现</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>行员优遇金</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>本年纯益</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
           <t>负债 合计</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>资本</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>盈余滚存</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>呆账准备</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>建筑准备</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>存款_活期</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>存款_定期</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>存款_行员储金</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>存款</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>保付支票</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>汇出汇款</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>转贴现</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>行员优遇金</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>本年纯益</t>
-        </is>
-      </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>发行辅币券准备</t>
@@ -871,29 +871,29 @@
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
+          <t>杂损益</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>呆账</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>各项开支</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>各项摊提</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
           <t>损失 合计</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>杂损益</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>呆账</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>各项开支</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>各项摊提</t>
-        </is>
-      </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>应收未收利息</t>
@@ -901,57 +901,57 @@
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
+          <t>平汇基金</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>贴现放款息</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>汇水</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>手续费</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>兑换损益</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>前万办事处纯益</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>货币损益</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>前期损益</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>上期纯益</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
           <t>利益 合计</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>平汇基金</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>利息</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>贴现放款息</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>汇水</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>手续费</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>兑换损益</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>前万办事处纯益</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>货币损益</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>前期损益</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>上期纯益</t>
         </is>
       </c>
     </row>
@@ -1123,11 +1123,9 @@
         <v>555872.13</v>
       </c>
       <c r="BK2" t="n">
-        <v>15118772.07</v>
-      </c>
-      <c r="BL2" t="n">
         <v>1250000</v>
       </c>
+      <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
@@ -1139,7 +1137,9 @@
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
-      <c r="BX2" t="inlineStr"/>
+      <c r="BX2" t="n">
+        <v>15118772.07</v>
+      </c>
       <c r="BY2" t="n">
         <v>587486</v>
       </c>
@@ -1175,48 +1175,48 @@
         <v>11000</v>
       </c>
       <c r="CK2" t="n">
-        <v>732983.5699999999</v>
-      </c>
-      <c r="CL2" t="n">
         <v>7777.72</v>
       </c>
+      <c r="CL2" t="inlineStr"/>
       <c r="CM2" t="inlineStr"/>
       <c r="CN2" t="inlineStr"/>
-      <c r="CO2" t="inlineStr"/>
+      <c r="CO2" t="n">
+        <v>732983.5699999999</v>
+      </c>
       <c r="CP2" t="n">
         <v>4787.06</v>
       </c>
       <c r="CQ2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>106721.86</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>193610.52</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>185989.64</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>2902.62</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>17604.42</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>824</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>35.31</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>217517.48</v>
+      </c>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="n">
         <v>15118772.07</v>
       </c>
-      <c r="CR2" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>106721.86</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>193610.52</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>185989.64</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>2902.62</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>17604.42</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>824</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>35.31</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>217517.48</v>
-      </c>
-      <c r="DA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1335,45 +1335,45 @@
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="n">
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="n">
+        <v>25451.82</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>60000</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>1223526.9</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>2405148.31</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>48544.52</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>3677219.73</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>331037.39</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>200000</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>588.3200000000001</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>592459.4399999999</v>
+      </c>
+      <c r="BX3" t="n">
         <v>13875403.98</v>
-      </c>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="n">
-        <v>25451.82</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>60000</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>1223526.9</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>2405148.31</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>48544.52</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>3677219.73</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>186.5</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>331037.39</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>200000</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>588.3200000000001</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>592459.4399999999</v>
       </c>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
@@ -1389,44 +1389,44 @@
         <v>30981.43</v>
       </c>
       <c r="CJ3" t="inlineStr"/>
-      <c r="CK3" t="n">
+      <c r="CK3" t="inlineStr"/>
+      <c r="CL3" t="n">
+        <v>7286.62</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>133827.43</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>16789.87</v>
+      </c>
+      <c r="CO3" t="n">
         <v>838866.28</v>
       </c>
-      <c r="CL3" t="inlineStr"/>
-      <c r="CM3" t="n">
-        <v>7286.62</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>133827.43</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>16789.87</v>
-      </c>
       <c r="CP3" t="inlineStr"/>
-      <c r="CQ3" t="n">
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="n">
+        <v>211185.13</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>21667.25</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>127686.84</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>25786.93</v>
+      </c>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" t="inlineStr"/>
+      <c r="CX3" t="n">
+        <v>208076.17</v>
+      </c>
+      <c r="CY3" t="inlineStr"/>
+      <c r="CZ3" t="n">
+        <v>213482.53</v>
+      </c>
+      <c r="DA3" t="n">
         <v>732983.5699999999</v>
-      </c>
-      <c r="CR3" t="inlineStr"/>
-      <c r="CS3" t="n">
-        <v>211185.13</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>21667.25</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>127686.84</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>25786.93</v>
-      </c>
-      <c r="CW3" t="inlineStr"/>
-      <c r="CX3" t="inlineStr"/>
-      <c r="CY3" t="n">
-        <v>208076.17</v>
-      </c>
-      <c r="CZ3" t="inlineStr"/>
-      <c r="DA3" t="n">
-        <v>213482.53</v>
       </c>
     </row>
     <row r="4">
@@ -1526,9 +1526,7 @@
       <c r="CN4" t="inlineStr"/>
       <c r="CO4" t="inlineStr"/>
       <c r="CP4" t="inlineStr"/>
-      <c r="CQ4" t="n">
-        <v>838866.28</v>
-      </c>
+      <c r="CQ4" t="inlineStr"/>
       <c r="CR4" t="inlineStr"/>
       <c r="CS4" t="inlineStr"/>
       <c r="CT4" t="inlineStr"/>
@@ -1538,7 +1536,9 @@
       <c r="CX4" t="inlineStr"/>
       <c r="CY4" t="inlineStr"/>
       <c r="CZ4" t="inlineStr"/>
-      <c r="DA4" t="inlineStr"/>
+      <c r="DA4" t="n">
+        <v>838866.28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trans_data/四川省银行 1936 C0244.xlsx
+++ b/trans_data/四川省银行 1936 C0244.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DA4"/>
+  <dimension ref="A1:CZ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,697 +434,695 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>银行名</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>银行名</t>
+          <t>年份</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>年份</t>
+          <t>定期放款</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>定期放款</t>
+          <t>定期抵押放款</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>定期抵押放款</t>
+          <t>比期放款</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>比期放款</t>
+          <t>贴现放款</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>贴现放款</t>
+          <t>往来透支</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>往来透支</t>
+          <t>日息放款</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>日息放款</t>
+          <t>暂记欠款</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>暂记欠款</t>
+          <t>存放同业</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>存放同业</t>
+          <t>存放外埠同业</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>存放外埠同业</t>
+          <t>运送中现金</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>运送中现金</t>
+          <t>现金_库存</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>现金_库存</t>
+          <t>现金_运送中现金</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>现金_运送中现金</t>
+          <t>现金_存放同业</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>现金_存放同业</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>放款_定期</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>放款_定期</t>
+          <t>放款_活期</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>放款_活期</t>
+          <t>放款_贴现</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>放款_贴现</t>
+          <t>放款</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>放款</t>
+          <t>押汇</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>押汇</t>
+          <t>有价证券</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>有价证券</t>
+          <t>生金银</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>生金银</t>
+          <t>各种货币</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>各种货币</t>
+          <t>领用券准备金</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>领用券准备金</t>
+          <t>期收汇款</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>期收汇款</t>
+          <t>期收款项</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>期收款项</t>
+          <t>存出保证金</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>存出保证金</t>
+          <t>开办费</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>开办费</t>
+          <t>建筑费</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>建筑费</t>
+          <t>营用房地产</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>营用房地产</t>
+          <t>营业用器具</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>营业用器具</t>
+          <t>资产 合计</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>资产 合计</t>
+          <t>托放款项</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>托放款项</t>
+          <t>买入汇款</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>买入汇款</t>
+          <t>定期存款</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>定期存款</t>
+          <t>往来存款</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>往来存款</t>
+          <t>特别往来存款</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>特别往来存款</t>
+          <t>比期存款</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>比期存款</t>
+          <t>本票</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>本票</t>
+          <t>保支</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>保支</t>
+          <t>暂时存款</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>暂时存款</t>
+          <t>同业存款</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>同业存款</t>
+          <t>存入保证金</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>存入保证金</t>
+          <t>期付款项</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>期付款项</t>
+          <t>领用兑换券</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>领用兑换券</t>
+          <t>领用券保证准备</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>领用券保证准备</t>
+          <t>发行辅币券</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>发行辅币券</t>
+          <t>卖出汇款</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>卖出汇款</t>
+          <t>特种行员存款</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>特种行员存款</t>
+          <t>甲种行员存款</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>甲种行员存款</t>
+          <t>乙种行员存款</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>乙种行员存款</t>
+          <t>期付汇款</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>期付汇款</t>
+          <t>应解汇款</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>应解汇款</t>
+          <t>代收款项</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>代收款项</t>
+          <t>营用器具折旧准备</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>营用器具折旧准备</t>
+          <t>营房地产折旧准备</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>营房地产折旧准备</t>
+          <t>未付汇款</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>未付汇款</t>
+          <t>预收利息</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>预收利息</t>
+          <t>应付未付利息</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>应付未付利息</t>
+          <t>本年总纯益</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>本年总纯益</t>
+          <t>资本</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>资本</t>
+          <t>盈余滚存</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>盈余滚存</t>
+          <t>呆账准备</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>呆账准备</t>
+          <t>建筑准备</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>建筑准备</t>
+          <t>存款_活期</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>存款_活期</t>
+          <t>存款_定期</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>存款_定期</t>
+          <t>存款_行员储金</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>存款_行员储金</t>
+          <t>存款</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>存款</t>
+          <t>保付支票</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>保付支票</t>
+          <t>汇出汇款</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>汇出汇款</t>
+          <t>转贴现</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>转贴现</t>
+          <t>行员优遇金</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>行员优遇金</t>
+          <t>本年纯益</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>本年纯益</t>
+          <t>负债 合计</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>负债 合计</t>
+          <t>发行辅币券准备</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>发行辅币券准备</t>
+          <t>领用兑换券准备</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>领用兑换券准备</t>
+          <t>代理行</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>代理行</t>
+          <t>预付各项开支</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>预付各项开支</t>
+          <t>特别开支</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>特别开支</t>
+          <t>营业开支</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>营业开支</t>
+          <t>日用开支</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>日用开支</t>
+          <t>摊提营业用器具</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>摊提营业用器具</t>
+          <t>摊提开办费</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>摊提开办费</t>
+          <t>房地产损益</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>房地产损益</t>
+          <t>有价证券损益</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>有价证券损益</t>
+          <t>摊提房地产</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>摊提房地产</t>
+          <t>杂损益</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>杂损益</t>
+          <t>呆账</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>呆账</t>
+          <t>各项开支</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>各项开支</t>
+          <t>各项摊提</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>各项摊提</t>
+          <t>损失 合计</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>损失 合计</t>
+          <t>应收未收利息</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>应收未收利息</t>
+          <t>平汇基金</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>平汇基金</t>
+          <t>利息</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>利息</t>
+          <t>贴现放款息</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>贴现放款息</t>
+          <t>汇水</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>汇水</t>
+          <t>手续费</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>手续费</t>
+          <t>兑换损益</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>兑换损益</t>
+          <t>前万办事处纯益</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>前万办事处纯益</t>
+          <t>货币损益</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>货币损益</t>
+          <t>前期损益</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>前期损益</t>
+          <t>上期纯益</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>上期纯益</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>利益 合计</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>四川省银行</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>1934</v>
+      </c>
       <c r="C2" t="n">
-        <v>1934</v>
+        <v>507505.92</v>
       </c>
       <c r="D2" t="n">
-        <v>507505.92</v>
+        <v>1139255.66</v>
       </c>
       <c r="E2" t="n">
-        <v>1139255.66</v>
+        <v>76500</v>
       </c>
       <c r="F2" t="n">
-        <v>76500</v>
+        <v>742185.61</v>
       </c>
       <c r="G2" t="n">
-        <v>742185.61</v>
+        <v>267791.89</v>
       </c>
       <c r="H2" t="n">
-        <v>267791.89</v>
+        <v>2740</v>
       </c>
       <c r="I2" t="n">
-        <v>2740</v>
+        <v>441863.92</v>
       </c>
       <c r="J2" t="n">
-        <v>441863.92</v>
+        <v>79806.45</v>
       </c>
       <c r="K2" t="n">
-        <v>79806.45</v>
+        <v>20000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000</v>
-      </c>
-      <c r="M2" t="n">
         <v>100000</v>
       </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
+      <c r="P2" t="n">
         <v>615921.4</v>
       </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>2188878</v>
+      </c>
       <c r="W2" t="n">
-        <v>2188878</v>
+        <v>82689.89</v>
       </c>
       <c r="X2" t="n">
-        <v>82689.89</v>
-      </c>
-      <c r="Y2" t="n">
         <v>332488.48</v>
       </c>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="n">
+        <v>219800</v>
+      </c>
       <c r="AA2" t="n">
-        <v>219800</v>
+        <v>2111600</v>
       </c>
       <c r="AB2" t="n">
-        <v>2111600</v>
+        <v>25617</v>
       </c>
       <c r="AC2" t="n">
-        <v>25617</v>
-      </c>
-      <c r="AD2" t="n">
         <v>33812.96</v>
       </c>
-      <c r="AE2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="n">
+        <v>55000</v>
+      </c>
       <c r="AF2" t="n">
-        <v>55000</v>
-      </c>
-      <c r="AG2" t="n">
         <v>29938.4</v>
       </c>
-      <c r="AH2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="n">
+        <v>5594.5</v>
+      </c>
       <c r="AI2" t="n">
-        <v>5594.5</v>
+        <v>66500</v>
       </c>
       <c r="AJ2" t="n">
-        <v>66500</v>
+        <v>23896.67</v>
       </c>
       <c r="AK2" t="n">
-        <v>23896.67</v>
+        <v>740033.38</v>
       </c>
       <c r="AL2" t="n">
-        <v>740033.38</v>
+        <v>60310.7</v>
       </c>
       <c r="AM2" t="n">
-        <v>60310.7</v>
+        <v>422813.03</v>
       </c>
       <c r="AN2" t="n">
-        <v>422813.03</v>
+        <v>21705.2</v>
       </c>
       <c r="AO2" t="n">
-        <v>21705.2</v>
+        <v>520</v>
       </c>
       <c r="AP2" t="n">
-        <v>520</v>
+        <v>877459.55</v>
       </c>
       <c r="AQ2" t="n">
-        <v>877459.55</v>
+        <v>111878.92</v>
       </c>
       <c r="AR2" t="n">
-        <v>111878.92</v>
+        <v>120</v>
       </c>
       <c r="AS2" t="n">
-        <v>120</v>
+        <v>2100000</v>
       </c>
       <c r="AT2" t="n">
-        <v>2100000</v>
+        <v>5000000</v>
       </c>
       <c r="AU2" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="AV2" t="n">
-        <v>2000000</v>
+        <v>587486</v>
       </c>
       <c r="AW2" t="n">
-        <v>587486</v>
+        <v>201560</v>
       </c>
       <c r="AX2" t="n">
-        <v>201560</v>
+        <v>4660.21</v>
       </c>
       <c r="AY2" t="n">
-        <v>4660.21</v>
+        <v>4464.06</v>
       </c>
       <c r="AZ2" t="n">
-        <v>4464.06</v>
+        <v>2432.13</v>
       </c>
       <c r="BA2" t="n">
-        <v>2432.13</v>
+        <v>71500</v>
       </c>
       <c r="BB2" t="n">
-        <v>71500</v>
+        <v>5880</v>
       </c>
       <c r="BC2" t="n">
-        <v>5880</v>
+        <v>34850</v>
       </c>
       <c r="BD2" t="n">
-        <v>34850</v>
+        <v>2858.56</v>
       </c>
       <c r="BE2" t="n">
-        <v>2858.56</v>
+        <v>11000</v>
       </c>
       <c r="BF2" t="n">
-        <v>11000</v>
+        <v>5200</v>
       </c>
       <c r="BG2" t="n">
-        <v>5200</v>
+        <v>22118.78</v>
       </c>
       <c r="BH2" t="n">
-        <v>22118.78</v>
+        <v>152.75</v>
       </c>
       <c r="BI2" t="n">
-        <v>152.75</v>
+        <v>555872.13</v>
       </c>
       <c r="BJ2" t="n">
-        <v>555872.13</v>
-      </c>
-      <c r="BK2" t="n">
         <v>1250000</v>
       </c>
+      <c r="BK2" t="inlineStr"/>
       <c r="BL2" t="inlineStr"/>
       <c r="BM2" t="inlineStr"/>
       <c r="BN2" t="inlineStr"/>
@@ -1136,245 +1134,242 @@
       <c r="BT2" t="inlineStr"/>
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
+      <c r="BW2" t="n">
+        <v>15118772.07</v>
+      </c>
       <c r="BX2" t="n">
-        <v>15118772.07</v>
+        <v>587486</v>
       </c>
       <c r="BY2" t="n">
-        <v>587486</v>
+        <v>5000000</v>
       </c>
       <c r="BZ2" t="n">
-        <v>5000000</v>
+        <v>377175.33</v>
       </c>
       <c r="CA2" t="n">
-        <v>377175.33</v>
+        <v>3833.6</v>
       </c>
       <c r="CB2" t="n">
-        <v>3833.6</v>
+        <v>10192.92</v>
       </c>
       <c r="CC2" t="n">
-        <v>10192.92</v>
+        <v>30938</v>
       </c>
       <c r="CD2" t="n">
-        <v>30938</v>
+        <v>58130.4</v>
       </c>
       <c r="CE2" t="n">
-        <v>58130.4</v>
+        <v>2858.56</v>
       </c>
       <c r="CF2" t="n">
-        <v>2858.56</v>
+        <v>3389.72</v>
       </c>
       <c r="CG2" t="n">
-        <v>3389.72</v>
-      </c>
-      <c r="CH2" t="n">
         <v>763.84</v>
       </c>
-      <c r="CI2" t="inlineStr"/>
+      <c r="CH2" t="inlineStr"/>
+      <c r="CI2" t="n">
+        <v>11000</v>
+      </c>
       <c r="CJ2" t="n">
-        <v>11000</v>
-      </c>
-      <c r="CK2" t="n">
         <v>7777.72</v>
       </c>
+      <c r="CK2" t="inlineStr"/>
       <c r="CL2" t="inlineStr"/>
       <c r="CM2" t="inlineStr"/>
-      <c r="CN2" t="inlineStr"/>
+      <c r="CN2" t="n">
+        <v>732983.5699999999</v>
+      </c>
       <c r="CO2" t="n">
-        <v>732983.5699999999</v>
+        <v>4787.06</v>
       </c>
       <c r="CP2" t="n">
-        <v>4787.06</v>
+        <v>1000000</v>
       </c>
       <c r="CQ2" t="n">
-        <v>1000000</v>
+        <v>106721.86</v>
       </c>
       <c r="CR2" t="n">
-        <v>106721.86</v>
+        <v>193610.52</v>
       </c>
       <c r="CS2" t="n">
-        <v>193610.52</v>
+        <v>185989.64</v>
       </c>
       <c r="CT2" t="n">
-        <v>185989.64</v>
+        <v>2902.62</v>
       </c>
       <c r="CU2" t="n">
-        <v>2902.62</v>
+        <v>17604.42</v>
       </c>
       <c r="CV2" t="n">
-        <v>17604.42</v>
+        <v>824</v>
       </c>
       <c r="CW2" t="n">
-        <v>824</v>
+        <v>35.31</v>
       </c>
       <c r="CX2" t="n">
-        <v>35.31</v>
-      </c>
-      <c r="CY2" t="n">
         <v>217517.48</v>
       </c>
-      <c r="CZ2" t="inlineStr"/>
-      <c r="DA2" t="n">
+      <c r="CY2" t="inlineStr"/>
+      <c r="CZ2" t="n">
         <v>15118772.07</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>四川省银行</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
         <v>1935</v>
       </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="I3" t="n">
         <v>1644147.24</v>
       </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1037905.7</v>
+      </c>
       <c r="N3" t="n">
-        <v>1037905.7</v>
+        <v>109.46</v>
       </c>
       <c r="O3" t="n">
-        <v>109.46</v>
-      </c>
-      <c r="P3" t="n">
         <v>180311.62</v>
       </c>
-      <c r="Q3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>4683309.94</v>
+      </c>
       <c r="R3" t="n">
-        <v>4683309.94</v>
+        <v>429607.18</v>
       </c>
       <c r="S3" t="n">
-        <v>429607.18</v>
+        <v>560505.38</v>
       </c>
       <c r="T3" t="n">
-        <v>560505.38</v>
+        <v>5673422.5</v>
       </c>
       <c r="U3" t="n">
-        <v>5673422.5</v>
-      </c>
-      <c r="V3" t="n">
         <v>15000</v>
       </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
+      <c r="Y3" t="n">
         <v>1000000</v>
       </c>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
+      <c r="AD3" t="n">
         <v>5500</v>
       </c>
+      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="n">
+      <c r="AG3" t="n">
         <v>13875403.98</v>
       </c>
+      <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="n">
+      <c r="AN3" t="n">
         <v>40996.5</v>
       </c>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="n">
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="n">
         <v>1820201.17</v>
       </c>
-      <c r="AR3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="n">
+        <v>10070</v>
+      </c>
       <c r="AS3" t="n">
-        <v>10070</v>
+        <v>2708402.9</v>
       </c>
       <c r="AT3" t="n">
-        <v>2708402.9</v>
+        <v>1000000</v>
       </c>
       <c r="AU3" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AV3" t="n">
         <v>400000</v>
       </c>
+      <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
+      <c r="BA3" t="n">
+        <v>67688</v>
+      </c>
       <c r="BB3" t="n">
-        <v>67688</v>
+        <v>231305.03</v>
       </c>
       <c r="BC3" t="n">
-        <v>231305.03</v>
+        <v>616156.35</v>
       </c>
       <c r="BD3" t="n">
-        <v>616156.35</v>
+        <v>21640.83</v>
       </c>
       <c r="BE3" t="n">
-        <v>21640.83</v>
-      </c>
-      <c r="BF3" t="n">
         <v>22000</v>
       </c>
+      <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
+      <c r="BK3" t="n">
+        <v>25451.82</v>
+      </c>
       <c r="BL3" t="n">
-        <v>25451.82</v>
+        <v>60000</v>
       </c>
       <c r="BM3" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="BN3" t="n">
-        <v>50000</v>
+        <v>1223526.9</v>
       </c>
       <c r="BO3" t="n">
-        <v>1223526.9</v>
+        <v>2405148.31</v>
       </c>
       <c r="BP3" t="n">
-        <v>2405148.31</v>
+        <v>48544.52</v>
       </c>
       <c r="BQ3" t="n">
-        <v>48544.52</v>
+        <v>3677219.73</v>
       </c>
       <c r="BR3" t="n">
-        <v>3677219.73</v>
+        <v>186.5</v>
       </c>
       <c r="BS3" t="n">
-        <v>186.5</v>
+        <v>331037.39</v>
       </c>
       <c r="BT3" t="n">
-        <v>331037.39</v>
+        <v>200000</v>
       </c>
       <c r="BU3" t="n">
-        <v>200000</v>
+        <v>588.3200000000001</v>
       </c>
       <c r="BV3" t="n">
-        <v>588.3200000000001</v>
+        <v>592459.4399999999</v>
       </c>
       <c r="BW3" t="n">
-        <v>592459.4399999999</v>
-      </c>
-      <c r="BX3" t="n">
         <v>13875403.98</v>
       </c>
+      <c r="BX3" t="inlineStr"/>
       <c r="BY3" t="inlineStr"/>
       <c r="BZ3" t="inlineStr"/>
       <c r="CA3" t="inlineStr"/>
@@ -1384,55 +1379,52 @@
       <c r="CE3" t="inlineStr"/>
       <c r="CF3" t="inlineStr"/>
       <c r="CG3" t="inlineStr"/>
-      <c r="CH3" t="inlineStr"/>
-      <c r="CI3" t="n">
+      <c r="CH3" t="n">
         <v>30981.43</v>
       </c>
+      <c r="CI3" t="inlineStr"/>
       <c r="CJ3" t="inlineStr"/>
-      <c r="CK3" t="inlineStr"/>
+      <c r="CK3" t="n">
+        <v>7286.62</v>
+      </c>
       <c r="CL3" t="n">
-        <v>7286.62</v>
+        <v>133827.43</v>
       </c>
       <c r="CM3" t="n">
-        <v>133827.43</v>
+        <v>16789.87</v>
       </c>
       <c r="CN3" t="n">
-        <v>16789.87</v>
-      </c>
-      <c r="CO3" t="n">
         <v>838866.28</v>
       </c>
+      <c r="CO3" t="inlineStr"/>
       <c r="CP3" t="inlineStr"/>
-      <c r="CQ3" t="inlineStr"/>
+      <c r="CQ3" t="n">
+        <v>211185.13</v>
+      </c>
       <c r="CR3" t="n">
-        <v>211185.13</v>
+        <v>21667.25</v>
       </c>
       <c r="CS3" t="n">
-        <v>21667.25</v>
+        <v>127686.84</v>
       </c>
       <c r="CT3" t="n">
-        <v>127686.84</v>
-      </c>
-      <c r="CU3" t="n">
         <v>25786.93</v>
       </c>
+      <c r="CU3" t="inlineStr"/>
       <c r="CV3" t="inlineStr"/>
-      <c r="CW3" t="inlineStr"/>
-      <c r="CX3" t="n">
+      <c r="CW3" t="n">
         <v>208076.17</v>
       </c>
-      <c r="CY3" t="inlineStr"/>
+      <c r="CX3" t="inlineStr"/>
+      <c r="CY3" t="n">
+        <v>213482.53</v>
+      </c>
       <c r="CZ3" t="n">
-        <v>213482.53</v>
-      </c>
-      <c r="DA3" t="n">
         <v>732983.5699999999</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1535,8 +1527,7 @@
       <c r="CW4" t="inlineStr"/>
       <c r="CX4" t="inlineStr"/>
       <c r="CY4" t="inlineStr"/>
-      <c r="CZ4" t="inlineStr"/>
-      <c r="DA4" t="n">
+      <c r="CZ4" t="n">
         <v>838866.28</v>
       </c>
     </row>

--- a/trans_data/四川省银行 1936 C0244.xlsx
+++ b/trans_data/四川省银行 1936 C0244.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,524 +422,524 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>银行名</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>年份</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>定期放款</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>定期抵押放款</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>比期放款</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>贴现放款</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>往来透支</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>日息放款</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>暂记欠款</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>存放同业</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>存放外埠同业</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>运送中现金</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>现金_库存</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>现金_运送中现金</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>现金_存放同业</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>放款_定期</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>放款_活期</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>放款_贴现</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>放款</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>押汇</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>有价证券</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>生金银</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>各种货币</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>领用券准备金</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>期收汇款</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>期收款项</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>存出保证金</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>开办费</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>建筑费</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>营用房地产</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>营业用器具</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>资产 合计</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
         <is>
           <t>托放款项</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>买入汇款</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>定期存款</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>往来存款</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>特别往来存款</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>比期存款</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>本票</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>保支</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>暂时存款</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>同业存款</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>存入保证金</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>期付款项</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>领用兑换券</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>领用券保证准备</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>发行辅币券</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>卖出汇款</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>特种行员存款</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>甲种行员存款</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>乙种行员存款</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>期付汇款</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>应解汇款</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>代收款项</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>营用器具折旧准备</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>营房地产折旧准备</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>未付汇款</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>预收利息</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>应付未付利息</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>本年总纯益</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BJ1" t="inlineStr">
         <is>
           <t>资本</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BK1" t="inlineStr">
         <is>
           <t>盈余滚存</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BL1" t="inlineStr">
         <is>
           <t>呆账准备</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BM1" t="inlineStr">
         <is>
           <t>建筑准备</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BN1" t="inlineStr">
         <is>
           <t>存款_活期</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BO1" t="inlineStr">
         <is>
           <t>存款_定期</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BP1" t="inlineStr">
         <is>
           <t>存款_行员储金</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BQ1" t="inlineStr">
         <is>
           <t>存款</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BR1" t="inlineStr">
         <is>
           <t>保付支票</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BS1" t="inlineStr">
         <is>
           <t>汇出汇款</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BT1" t="inlineStr">
         <is>
           <t>转贴现</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BU1" t="inlineStr">
         <is>
           <t>行员优遇金</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BV1" t="inlineStr">
         <is>
           <t>本年纯益</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>负债 合计</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
         <is>
           <t>发行辅币券准备</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BY1" t="inlineStr">
         <is>
           <t>领用兑换券准备</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="BZ1" t="inlineStr">
         <is>
           <t>代理行</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CA1" t="inlineStr">
         <is>
           <t>预付各项开支</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CB1" t="inlineStr">
         <is>
           <t>特别开支</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CC1" t="inlineStr">
         <is>
           <t>营业开支</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CD1" t="inlineStr">
         <is>
           <t>日用开支</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CE1" t="inlineStr">
         <is>
           <t>摊提营业用器具</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CF1" t="inlineStr">
         <is>
           <t>摊提开办费</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CG1" t="inlineStr">
         <is>
           <t>房地产损益</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CH1" t="inlineStr">
         <is>
           <t>有价证券损益</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CI1" t="inlineStr">
         <is>
           <t>摊提房地产</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CJ1" t="inlineStr">
         <is>
           <t>杂损益</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CK1" t="inlineStr">
         <is>
           <t>呆账</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CL1" t="inlineStr">
         <is>
           <t>各项开支</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CM1" t="inlineStr">
         <is>
           <t>各项摊提</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>损失 合计</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CN1" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="CO1" t="inlineStr">
         <is>
           <t>应收未收利息</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CP1" t="inlineStr">
         <is>
           <t>平汇基金</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CQ1" t="inlineStr">
         <is>
           <t>利息</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CR1" t="inlineStr">
         <is>
           <t>贴现放款息</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CS1" t="inlineStr">
         <is>
           <t>汇水</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CT1" t="inlineStr">
         <is>
           <t>手续费</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CU1" t="inlineStr">
         <is>
           <t>兑换损益</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CV1" t="inlineStr">
         <is>
           <t>前万办事处纯益</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CW1" t="inlineStr">
         <is>
           <t>货币损益</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CX1" t="inlineStr">
         <is>
           <t>前期损益</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CY1" t="inlineStr">
         <is>
           <t>上期纯益</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>利益 合计</t>
+      <c r="CZ1" t="inlineStr">
+        <is>
+          <t>合计</t>
         </is>
       </c>
     </row>

--- a/trans_data/四川省银行 1936 C0244.xlsx
+++ b/trans_data/四川省银行 1936 C0244.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,524 +434,524 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>银行名</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>年份</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>定期放款</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>定期抵押放款</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>比期放款</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>贴现放款</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>往来透支</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>日息放款</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>暂记欠款</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>存放同业</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>存放外埠同业</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>运送中现金</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>现金_库存</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>现金_运送中现金</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>现金_存放同业</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>现金</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>放款_定期</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>放款_活期</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>放款_贴现</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>放款</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>押汇</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>有价证券</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>生金银</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>各种货币</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>领用券准备金</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>期收汇款</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>期收款项</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>存出保证金</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>开办费</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>建筑费</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>营用房地产</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>营业用器具</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>资产 合计</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>托放款项</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>买入汇款</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>定期存款</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>往来存款</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>特别往来存款</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>比期存款</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>本票</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>保支</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>暂时存款</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>同业存款</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>存入保证金</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>期付款项</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>领用兑换券</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>领用券保证准备</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>发行辅币券</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>卖出汇款</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>特种行员存款</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>甲种行员存款</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>乙种行员存款</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>期付汇款</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>应解汇款</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>代收款项</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>营用器具折旧准备</t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>营房地产折旧准备</t>
         </is>
       </c>
-      <c r="BF1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>未付汇款</t>
         </is>
       </c>
-      <c r="BG1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>预收利息</t>
         </is>
       </c>
-      <c r="BH1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>应付未付利息</t>
         </is>
       </c>
-      <c r="BI1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>本年总纯益</t>
         </is>
       </c>
-      <c r="BJ1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>资本</t>
         </is>
       </c>
-      <c r="BK1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>盈余滚存</t>
         </is>
       </c>
-      <c r="BL1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>呆账准备</t>
         </is>
       </c>
-      <c r="BM1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>建筑准备</t>
         </is>
       </c>
-      <c r="BN1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>存款_活期</t>
         </is>
       </c>
-      <c r="BO1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>存款_定期</t>
         </is>
       </c>
-      <c r="BP1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>存款_行员储金</t>
         </is>
       </c>
-      <c r="BQ1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>存款</t>
         </is>
       </c>
-      <c r="BR1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>保付支票</t>
         </is>
       </c>
-      <c r="BS1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>汇出汇款</t>
         </is>
       </c>
-      <c r="BT1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>转贴现</t>
         </is>
       </c>
-      <c r="BU1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>行员优遇金</t>
         </is>
       </c>
-      <c r="BV1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>本年纯益</t>
         </is>
       </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>负债 合计</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>发行辅币券准备</t>
         </is>
       </c>
-      <c r="BY1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>领用兑换券准备</t>
         </is>
       </c>
-      <c r="BZ1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>代理行</t>
         </is>
       </c>
-      <c r="CA1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>预付各项开支</t>
         </is>
       </c>
-      <c r="CB1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>特别开支</t>
         </is>
       </c>
-      <c r="CC1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>营业开支</t>
         </is>
       </c>
-      <c r="CD1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>日用开支</t>
         </is>
       </c>
-      <c r="CE1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>摊提营业用器具</t>
         </is>
       </c>
-      <c r="CF1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>摊提开办费</t>
         </is>
       </c>
-      <c r="CG1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>房地产损益</t>
         </is>
       </c>
-      <c r="CH1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>有价证券损益</t>
         </is>
       </c>
-      <c r="CI1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>摊提房地产</t>
         </is>
       </c>
-      <c r="CJ1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>杂损益</t>
         </is>
       </c>
-      <c r="CK1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>呆账</t>
         </is>
       </c>
-      <c r="CL1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>各项开支</t>
         </is>
       </c>
-      <c r="CM1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>各项摊提</t>
         </is>
       </c>
-      <c r="CN1" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="CO1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>损失 合计</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>应收未收利息</t>
         </is>
       </c>
-      <c r="CP1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>平汇基金</t>
         </is>
       </c>
-      <c r="CQ1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>利息</t>
         </is>
       </c>
-      <c r="CR1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>贴现放款息</t>
         </is>
       </c>
-      <c r="CS1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>汇水</t>
         </is>
       </c>
-      <c r="CT1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>手续费</t>
         </is>
       </c>
-      <c r="CU1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>兑换损益</t>
         </is>
       </c>
-      <c r="CV1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>前万办事处纯益</t>
         </is>
       </c>
-      <c r="CW1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>货币损益</t>
         </is>
       </c>
-      <c r="CX1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>前期损益</t>
         </is>
       </c>
-      <c r="CY1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>上期纯益</t>
         </is>
       </c>
-      <c r="CZ1" t="inlineStr">
-        <is>
-          <t>合计</t>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>利益 合计</t>
         </is>
       </c>
     </row>
